--- a/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/5-土地征收.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/5-土地征收.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19005" windowHeight="10950"/>
+    <workbookView windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>{Form=}</t>
   </si>
@@ -33,6 +33,12 @@
     <t>土地征收面积</t>
   </si>
   <si>
+    <t>{Value=1}</t>
+  </si>
+  <si>
+    <t>{RateValue=1}</t>
+  </si>
+  <si>
     <t xml:space="preserve">    其中：农用地</t>
   </si>
   <si>
@@ -42,9 +48,15 @@
     <t xml:space="preserve">    征收费用（万元）</t>
   </si>
   <si>
+    <t>{Value=5}</t>
+  </si>
+  <si>
     <t xml:space="preserve">    安置农业人口（人）</t>
   </si>
   <si>
+    <t>{Value=7}</t>
+  </si>
+  <si>
     <t>分区土地征收情况（亩）</t>
   </si>
   <si>
@@ -52,6 +64,9 @@
   </si>
   <si>
     <t>市本级</t>
+  </si>
+  <si>
+    <t>{Value=1 Node=37}</t>
   </si>
   <si>
     <t xml:space="preserve">    其中：新城</t>
@@ -84,11 +99,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,11 +119,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -116,53 +177,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,51 +251,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -237,17 +267,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,43 +290,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +410,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,55 +440,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,54 +464,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -443,12 +471,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,24 +489,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,21 +523,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -554,6 +543,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -568,6 +566,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -576,10 +598,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,137 +610,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,13 +756,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1066,13 +1091,14 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B11" sqref="B11:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1095,7 +1121,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1105,48 +1131,68 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" ht="14.25" spans="1:4">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>3</v>
@@ -1160,75 +1206,111 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" ht="14.25" spans="1:4">
-      <c r="A11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" ht="14.25" spans="1:4">
-      <c r="A12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" ht="14.25" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" ht="14.25" spans="1:4">
-      <c r="A14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" ht="14.25" spans="1:4">
-      <c r="A15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" ht="14.25" spans="1:4">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" ht="14.25" spans="1:4">
-      <c r="A17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" ht="14.25" spans="1:4">
-      <c r="A18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" ht="15" spans="1:4">
-      <c r="A19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">
